--- a/data/invoices.xlsx
+++ b/data/invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>status</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -502,6 +507,43 @@
       <c r="G2" t="inlineStr">
         <is>
           <t>pending</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>286e566f-2df3-4fc8-a1fa-5a011cd12df4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-11-15T18:30:00.000Z</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2024-11-16T09:38:05.924534</t>
         </is>
       </c>
     </row>

--- a/data/invoices.xlsx
+++ b/data/invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,104 +446,87 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>customer_name</t>
+          <t>reference_type</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>reference_id</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>due_date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>billing_address</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>shipping_address</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>items</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>subtotal</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>discount</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>gst_breakdown</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>total_gst</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>total_amount</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>payment_status</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>created_at</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>9cb16798-4974-4a41-b42d-47e851c88262</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>INV-1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Hasnain</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[{'id': '01f55631-94c1-4719-bf52-94814bfbde8c', 'name': 'hammer', 'quantity': 1, 'price': 78}, {'id': 'ead516ec-d0bd-4426-90b5-c7e488d98521', 'name': 'hammer', 'quantity': 0, 'price': 78}, {'id': '1fd15b25-ce16-4245-bc59-88c1df216248', 'name': 'hammer', 'quantity': 0, 'price': 78}, {'id': '88521977-ae8e-4a6b-b575-0aa4a9fdef44', 'name': 'hammer', 'quantity': 0, 'price': 78}]</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>78</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2024-11-09T20:25:12.603836</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>286e566f-2df3-4fc8-a1fa-5a011cd12df4</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Test1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2024-11-15T18:30:00.000Z</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2024-11-16T09:38:05.924534</t>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
         </is>
       </c>
     </row>
